--- a/biology/Botanique/Nymphaeanae/Nymphaeanae.xlsx
+++ b/biology/Botanique/Nymphaeanae/Nymphaeanae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ordre des Nymphéales (Nymphaeales) regroupe des plantes à fleurs basales par rapport aux autres angiospermes. Basal veut dire que les Nymphaeales sont à la base de l'arbre phylogénétique des Angiospermes, raison pour laquelle elles appartiennent au groupe des Protoangiospermes.
 </t>
@@ -511,16 +523,18 @@
           <t>Histoire du taxon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En classification classique de Cronquist (1981)[1] il comprend cinq familles :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En classification classique de Cronquist (1981) il comprend cinq familles :
 Nelumbonacées (Nelumbonaceae)
 Barclayacées (Barclayaceae)
 Cabombacées (Cabombaceae)
 Cératophyllacées (Ceratophyllaceae)
 Nymphéacées (Nymphaeaceae) (famille des nénuphars)
-Dans la classification phylogénétique APG II (2003)[2], il n’existe pas, mais le Angiosperm Phylogeny Website a réintroduit cet ordre.
-Selon la classification phylogénétique APG III (2009)[3] et la classification phylogénétique APG IV (2016)[4], cet ordre comprend trois familles :
+Dans la classification phylogénétique APG II (2003), il n’existe pas, mais le Angiosperm Phylogeny Website a réintroduit cet ordre.
+Selon la classification phylogénétique APG III (2009) et la classification phylogénétique APG IV (2016), cet ordre comprend trois familles :
 ordre Nymphaeales
 famille Cabombaceae
 famille Hydatellaceae
